--- a/Chat App Bug Sheet.xlsx
+++ b/Chat App Bug Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Praba's Love Project: Bug Sheet _ Frontend and Backend</t>
   </si>
@@ -72,7 +72,31 @@
     <t>push code to Git</t>
   </si>
   <si>
-    <t>improgress</t>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>GetMail api is Not Working</t>
+  </si>
+  <si>
+    <t>Check remaining all api's in Level</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>Register Api</t>
+  </si>
+  <si>
+    <t>Login Api</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Refresh Token</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -131,13 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,28 +469,28 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -537,7 +564,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45177</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -550,18 +577,30 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -659,7 +698,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,16 +710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -754,7 +793,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45177</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -767,17 +806,29 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -785,7 +836,9 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -793,7 +846,9 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
